--- a/W6 Project/Kanen OS Task Distribution.xlsx
+++ b/W6 Project/Kanen OS Task Distribution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>T001</t>
   </si>
@@ -163,13 +163,25 @@
   </si>
   <si>
     <t>Sebastian Briones</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Create new tables and encode data</t>
+  </si>
+  <si>
+    <t>1 hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +211,22 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,13 +267,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -760,7 +790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -771,7 +801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -782,14 +812,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
@@ -800,12 +830,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
@@ -816,7 +846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
@@ -827,7 +857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
@@ -838,14 +868,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -856,8 +886,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -865,6 +895,23 @@
       </c>
       <c r="C46" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/W6 Project/Kanen OS Task Distribution.xlsx
+++ b/W6 Project/Kanen OS Task Distribution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>T001</t>
   </si>
@@ -172,16 +172,13 @@
   </si>
   <si>
     <t>Create new tables and encode data</t>
-  </si>
-  <si>
-    <t>1 hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +228,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -276,6 +280,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,7 +895,7 @@
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -904,14 +909,14 @@
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/W6 Project/Kanen OS Task Distribution.xlsx
+++ b/W6 Project/Kanen OS Task Distribution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>T001</t>
   </si>
@@ -172,13 +172,46 @@
   </si>
   <si>
     <t>Create new tables and encode data</t>
+  </si>
+  <si>
+    <t>UI done (not functional)</t>
+  </si>
+  <si>
+    <t>T110</t>
+  </si>
+  <si>
+    <t>Create JPA Entity for User Membership</t>
+  </si>
+  <si>
+    <t>T210</t>
+  </si>
+  <si>
+    <t>DAO &amp; Services</t>
+  </si>
+  <si>
+    <t>Receive Request of JMS Producer</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>UI done</t>
+  </si>
+  <si>
+    <t>partially done, waiting for backend</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>ongoing (at 50%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +268,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -281,6 +327,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,14 +634,14 @@
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="108.7109375" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -616,20 +664,26 @@
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -656,11 +710,14 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -680,6 +737,9 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
@@ -691,8 +751,11 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -703,7 +766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -713,62 +776,74 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -779,143 +854,182 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="A40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>36</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6" t="s">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B51" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>49</v>
       </c>
     </row>

--- a/W6 Project/Kanen OS Task Distribution.xlsx
+++ b/W6 Project/Kanen OS Task Distribution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>T001</t>
   </si>
@@ -138,15 +138,9 @@
     <t>CJ Kanen</t>
   </si>
   <si>
-    <t>Mandays</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kanen Online Shopping </t>
   </si>
   <si>
-    <t>Taks List</t>
-  </si>
-  <si>
     <t>T013</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>Create new tables and encode data</t>
   </si>
   <si>
-    <t>UI done (not functional)</t>
-  </si>
-  <si>
     <t>T110</t>
   </si>
   <si>
@@ -192,26 +183,14 @@
     <t>Receive Request of JMS Producer</t>
   </si>
   <si>
-    <t>partial</t>
-  </si>
-  <si>
-    <t>UI done</t>
-  </si>
-  <si>
-    <t>partially done, waiting for backend</t>
-  </si>
-  <si>
-    <t>ongoing</t>
-  </si>
-  <si>
-    <t>ongoing (at 50%)</t>
+    <t>Tasks List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,15 +219,6 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -264,19 +234,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,18 +274,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,19 +593,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
@@ -661,63 +612,69 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -728,112 +685,118 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -844,14 +807,17 @@
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -860,45 +826,45 @@
       <c r="C31" s="2"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>52</v>
+      <c r="D34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>52</v>
+      <c r="D35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>52</v>
+      <c r="D36" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -910,127 +876,137 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>57</v>
+      <c r="B39" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>44</v>
+      <c r="A49" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B53" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/W6 Project/Kanen OS Task Distribution.xlsx
+++ b/W6 Project/Kanen OS Task Distribution.xlsx
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
